--- a/Uncertainties Dynamic planning under unexpected events/Figures/experiment34959/percentage0parallel_number3dynamic50implement/best_routespercentage0parallel_number3dynamic50implement_34959.xlsx
+++ b/Uncertainties Dynamic planning under unexpected events/Figures/experiment34959/percentage0parallel_number3dynamic50implement/best_routespercentage0parallel_number3dynamic50implement_34959.xlsx
@@ -3349,36 +3349,52 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>begin_depot</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>end_depot</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>begin_depot</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>3000000000000pickup</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>3000000000000delivery</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>end_depot</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>6</v>
       </c>
+      <c r="E2" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -3388,6 +3404,12 @@
         <v>67</v>
       </c>
       <c r="C3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D3" t="n">
+        <v>79</v>
+      </c>
+      <c r="E3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3399,6 +3421,12 @@
         <v>67</v>
       </c>
       <c r="C4" t="n">
+        <v>128</v>
+      </c>
+      <c r="D4" t="n">
+        <v>79</v>
+      </c>
+      <c r="E4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3410,6 +3438,12 @@
         <v>67</v>
       </c>
       <c r="C5" t="n">
+        <v>129</v>
+      </c>
+      <c r="D5" t="n">
+        <v>80</v>
+      </c>
+      <c r="E5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -6871,7 +6905,7 @@
         <v>50</v>
       </c>
       <c r="C4" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D4" t="n">
         <v>56</v>
@@ -6888,7 +6922,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D5" t="n">
         <v>57</v>
@@ -8108,6 +8142,381 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>begin_depot</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>end_depot</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>begin_depot</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>end_depot</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>begin_depot</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>end_depot</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>begin_depot</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>end_depot</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>begin_depot</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>end_depot</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8160,458 +8569,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>73</v>
-      </c>
-      <c r="C3" t="n">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="C3" t="n">
+        <v>74</v>
       </c>
       <c r="D3" t="n">
+        <v>80</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>74</v>
       </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>73</v>
-      </c>
-      <c r="C4" t="n">
-        <v>73</v>
+      <c r="C4" t="n">
+        <v>128</v>
       </c>
       <c r="D4" t="n">
+        <v>80</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>74</v>
       </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>73</v>
-      </c>
-      <c r="C5" t="n">
-        <v>73</v>
+      <c r="C5" t="n">
+        <v>129</v>
       </c>
       <c r="D5" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>begin_depot</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>end_depot</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>begin_depot</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>end_depot</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>begin_depot</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>3000000000000pickup</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>3000000000000delivery</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>end_depot</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>62</v>
-      </c>
-      <c r="C3" t="n">
-        <v>62</v>
-      </c>
-      <c r="D3" t="n">
-        <v>64</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>62</v>
-      </c>
-      <c r="C4" t="n">
-        <v>62</v>
-      </c>
-      <c r="D4" t="n">
-        <v>64</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>62</v>
-      </c>
-      <c r="C5" t="n">
-        <v>62</v>
-      </c>
-      <c r="D5" t="n">
-        <v>64</v>
-      </c>
-      <c r="E5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>begin_depot</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>end_depot</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>begin_depot</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>end_depot</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>74</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>74</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>74</v>
-      </c>
-      <c r="C5" t="n">
         <v>3</v>
       </c>
     </row>
